--- a/medicine/Enfance/Les_Fugitifs_d'Athènes/Les_Fugitifs_d'Athènes.xlsx
+++ b/medicine/Enfance/Les_Fugitifs_d'Athènes/Les_Fugitifs_d'Athènes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Fugitifs_d%27Ath%C3%A8nes</t>
+          <t>Les_Fugitifs_d'Athènes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Fugitifs d'Athènes (The Fugitive from Corinth) est le dixième volume de la série de romans écrits par Caroline Lawrence, Les Mystères romains, publié en France, aux éditions Milan, le 24 mai 2007. L'action de ce roman historique se situe sous la Rome antique, à Athènes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Fugitifs_d%27Ath%C3%A8nes</t>
+          <t>Les_Fugitifs_d'Athènes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Fugitifs_d%27Ath%C3%A8nes</t>
+          <t>Les_Fugitifs_d'Athènes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +552,9 @@
           <t>Parutions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Milan (Poche Histoire), 2007,  (ISBN 978-2-7459-1826-0)</t>
         </is>
@@ -550,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Les_Fugitifs_d%27Ath%C3%A8nes</t>
+          <t>Les_Fugitifs_d'Athènes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -568,7 +584,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Site officiel des éditions Milan
  Portail de la Rome antique   Portail de la littérature américaine   Portail de la littérature d’enfance et de jeunesse                   </t>
